--- a/TH.xlsx
+++ b/TH.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="39">
   <si>
     <t>THL00</t>
   </si>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1537"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1245" sqref="Z1245:Z1252"/>
+    <sheetView tabSelected="1" topLeftCell="A829" workbookViewId="0">
+      <selection activeCell="H855" sqref="H855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -56425,9 +56425,6 @@
       <c r="F1002" s="1">
         <v>0.26400000000000001</v>
       </c>
-      <c r="G1002" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I1002" s="1">
         <v>7.01</v>
       </c>
@@ -56474,9 +56471,6 @@
       </c>
       <c r="F1003" s="1">
         <v>0.27500000000000002</v>
-      </c>
-      <c r="G1003" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I1003" s="1">
         <v>7.73</v>
